--- a/Shredder_Single_Cutter/BOOM.xlsx
+++ b/Shredder_Single_Cutter/BOOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tankh\Desktop\Shredder_Single_Cutter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tankh\Documents\GitHub\TMNT_Shredder\Shredder_Single_Cutter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{112C4CC8-1877-4190-BF37-4806B3291AE3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D12B087-8D99-4D61-9B1E-E1E53917FE94}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11760" xr2:uid="{7106D525-FBB7-4D3A-9078-D4F1FD6DB945}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Name/Part Number</t>
   </si>
@@ -48,23 +48,49 @@
     <t>1" Wide Low-Carbon Steel Hex Bar/6512K45</t>
   </si>
   <si>
-    <t>2 Piece- UCFL204 3/4" Bearing</t>
-  </si>
-  <si>
     <t>1/4"x12"x12" Steel Plate</t>
   </si>
   <si>
     <t>1/2"-13 threaded rod</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>UCFL205-16 1" Bearing</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B01IWGK75G/?coliid=I14NHXL9KPQOED&amp;colid=12B7XVXGA5R6N&amp;psc=1&amp;ref_=lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Prime</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B00YWBQ7W8/?coliid=I3FOVNR3V6NQ6A&amp;colid=12B7XVXGA5R6N&amp;psc=1&amp;ref_=lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/6512k45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,13 +113,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -406,140 +435,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD98B52-A2B6-4085-B48E-69A0F52E943C}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.81640625" customWidth="1"/>
+    <col min="1" max="1" width="44.08984375" customWidth="1"/>
+    <col min="2" max="2" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
         <v>13.39</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <f>B2*C2</f>
+      <c r="E2">
+        <f>C2*D2</f>
         <v>13.39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>15.75</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E12" si="0">C3*D3</f>
+        <v>15.75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>17.579999999999998</v>
-      </c>
-      <c r="C3">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>30.39</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>151.94999999999999</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>10.98</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D12" si="0">B3*C3</f>
-        <v>17.579999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>32.9</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>164.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+      <c r="E5">
+        <f t="shared" si="0"/>
         <v>10.98</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>10.98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D16">
-        <f>SUM(D2:D15)</f>
-        <v>206.45</v>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <f>SUM(E2:E15)</f>
+        <v>192.06999999999996</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{AF2FDBC4-AD6E-4EBE-9B2C-DC65FEA80228}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{769C5E80-A7CE-4240-BCA8-BEA4BD700704}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{352BDFE0-F2D9-4233-8CC8-CBB020488758}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>